--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,33 @@
   </si>
   <si>
     <t>VIP-Liste 2015</t>
+  </si>
+  <si>
+    <t>Buffet Gusenhütt'n</t>
+  </si>
+  <si>
+    <t>SPAR Ried (Wall)</t>
+  </si>
+  <si>
+    <t>Sparkasse Ried/Riedmark</t>
+  </si>
+  <si>
+    <t>Raiffeisenkasse Ried/Riedmark</t>
+  </si>
+  <si>
+    <t>Opel Holzer</t>
+  </si>
+  <si>
+    <t>Firma SZ Tauschek Christian</t>
+  </si>
+  <si>
+    <t>Elektro Tauschek Hubert</t>
+  </si>
+  <si>
+    <t>Hentschläger</t>
+  </si>
+  <si>
+    <t>KCS KFZ Center (Furth)</t>
   </si>
 </sst>
 </file>
@@ -194,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +256,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -536,7 +564,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +629,9 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="13"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
@@ -614,7 +644,9 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="19" t="s">
         <v>9</v>
@@ -627,7 +659,9 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="19" t="s">
         <v>9</v>
@@ -638,7 +672,9 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="19" t="s">
         <v>9</v>
@@ -648,7 +684,9 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="19" t="s">
         <v>9</v>
@@ -658,7 +696,9 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="19" t="s">
         <v>18</v>
@@ -668,7 +708,9 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="19" t="s">
         <v>15</v>
@@ -678,7 +720,9 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="19" t="s">
         <v>13</v>
@@ -687,6 +731,9 @@
     <row r="14" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="19" t="s">

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>KCS KFZ Center (Furth)</t>
+  </si>
+  <si>
+    <t>Techn. Büro Brandstetter</t>
+  </si>
+  <si>
+    <t>Baumeister Moser</t>
+  </si>
+  <si>
+    <t>Mörtenbäck</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +753,9 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="19" t="s">
         <v>11</v>
@@ -754,7 +765,9 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="19" t="s">
         <v>12</v>
@@ -764,7 +777,9 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="21" t="s">
         <v>19</v>

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +121,87 @@
   </si>
   <si>
     <t>Mörtenbäck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchweger Transporte </t>
+  </si>
+  <si>
+    <t>Linz AG</t>
+  </si>
+  <si>
+    <t>Fuchs Bettina Nagelstudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wießbauer </t>
+  </si>
+  <si>
+    <t>Lagerhaus Lungitz</t>
+  </si>
+  <si>
+    <t>OÖ. Versicherung Janko</t>
+  </si>
+  <si>
+    <t>Uniqua Versicherung Roidinger</t>
+  </si>
+  <si>
+    <t>Opel Pleiner</t>
+  </si>
+  <si>
+    <t>Office Hinterberger</t>
+  </si>
+  <si>
+    <t>Mayrhofer Franz</t>
+  </si>
+  <si>
+    <t>Ogolder Marianne</t>
+  </si>
+  <si>
+    <t>Sandwerk</t>
+  </si>
+  <si>
+    <t>Bgm. Ernst Rabl</t>
+  </si>
+  <si>
+    <t>VzBgm. Christian Tauschek</t>
+  </si>
+  <si>
+    <t>VzBgm. Rosa Gumplmayr</t>
+  </si>
+  <si>
+    <t>Spenglerei Kaltenbrunner</t>
+  </si>
+  <si>
+    <t>Generali</t>
+  </si>
+  <si>
+    <t>Volvo Reichart</t>
+  </si>
+  <si>
+    <t>Contitec</t>
+  </si>
+  <si>
+    <t>Tschebbarwoggi</t>
+  </si>
+  <si>
+    <t>Elektro Wurmsdobler</t>
+  </si>
+  <si>
+    <t>ACS Gagstädter</t>
+  </si>
+  <si>
+    <t>GCA Golfclub</t>
+  </si>
+  <si>
+    <t>Mega Kebab St. Georgen</t>
+  </si>
+  <si>
+    <t>Stein &amp; Co Holding GmbH</t>
+  </si>
+  <si>
+    <t>Hofer (Elektrohändler Ried)</t>
+  </si>
+  <si>
+    <t>Patricia</t>
   </si>
 </sst>
 </file>
@@ -572,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +870,9 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="21" t="s">
         <v>19</v>
@@ -799,7 +882,9 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="21" t="s">
         <v>19</v>
@@ -809,7 +894,9 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="21" t="s">
         <v>19</v>
@@ -819,7 +906,9 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="21" t="s">
         <v>19</v>
@@ -829,7 +918,9 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="21" t="s">
         <v>19</v>
@@ -839,7 +930,9 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="19" t="s">
         <v>13</v>
@@ -849,7 +942,9 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="19" t="s">
         <v>14</v>
@@ -859,7 +954,9 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="19" t="s">
         <v>9</v>
@@ -869,7 +966,9 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="19" t="s">
         <v>11</v>
@@ -879,7 +978,9 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="19" t="s">
         <v>9</v>
@@ -889,7 +990,9 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="19" t="s">
         <v>9</v>
@@ -899,7 +1002,9 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -909,7 +1014,9 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="19" t="s">
         <v>15</v>
@@ -919,7 +1026,9 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="19" t="s">
         <v>16</v>
@@ -929,7 +1038,9 @@
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="19" t="s">
         <v>11</v>
@@ -942,7 +1053,9 @@
       <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="19" t="s">
         <v>11</v>
@@ -952,7 +1065,9 @@
       <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="19" t="s">
         <v>8</v>
@@ -962,7 +1077,9 @@
       <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="19" t="s">
         <v>16</v>
@@ -972,7 +1089,9 @@
       <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="19" t="s">
         <v>16</v>
@@ -982,7 +1101,9 @@
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="19" t="s">
         <v>11</v>
@@ -992,7 +1113,9 @@
       <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="19" t="s">
         <v>12</v>
@@ -1002,7 +1125,9 @@
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="19" t="s">
         <v>17</v>
@@ -1012,7 +1137,9 @@
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="19" t="s">
         <v>17</v>
@@ -1022,7 +1149,9 @@
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="19" t="s">
         <v>17</v>
@@ -1032,7 +1161,9 @@
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="19" t="s">
         <v>10</v>
@@ -1042,7 +1173,9 @@
       <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="19" t="s">
         <v>10</v>
@@ -1052,7 +1185,9 @@
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="19" t="s">
         <v>10</v>
@@ -1062,7 +1197,9 @@
       <c r="A45" s="12">
         <v>42</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="19" t="s">
         <v>10</v>

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Patricia</t>
+  </si>
+  <si>
+    <t>Hinterkörner Harald</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1212,9 @@
       <c r="A46" s="12">
         <v>43</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15" t="s">
         <v>10</v>

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$51</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +208,12 @@
   </si>
   <si>
     <t>Hinterkörner Harald</t>
+  </si>
+  <si>
+    <t>JVP Ried (Bühne)</t>
+  </si>
+  <si>
+    <t>Swietelsky</t>
   </si>
 </sst>
 </file>
@@ -656,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1233,9 @@
       <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
         <v>10</v>
@@ -1234,7 +1245,9 @@
       <c r="A48" s="12">
         <v>45</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="15" t="s">
         <v>12</v>
@@ -1284,7 +1297,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Swietelsky</t>
+  </si>
+  <si>
+    <t>Fam. Holzweber</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1260,9 @@
       <c r="A49" s="12">
         <v>46</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="15" t="s">
         <v>15</v>
@@ -1267,7 +1272,9 @@
       <c r="A50" s="16">
         <v>47</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C50" s="18"/>
       <c r="D50" s="15" t="s">
         <v>11</v>

--- a/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
+++ b/2015/Sponsoring/VIP/VIP-Liste 2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Raiffeisenkasse Ried/Riedmark</t>
   </si>
   <si>
-    <t>Opel Holzer</t>
-  </si>
-  <si>
     <t>Firma SZ Tauschek Christian</t>
   </si>
   <si>
@@ -217,13 +214,41 @@
   </si>
   <si>
     <t>Fam. Holzweber</t>
+  </si>
+  <si>
+    <t>Raiffeisenkasse St. Georgen/Gusen</t>
+  </si>
+  <si>
+    <r>
+      <t>Opel Holzer (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zählt doppelt!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +283,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -668,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="19" t="s">
@@ -802,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="19" t="s">
@@ -814,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="19" t="s">
@@ -826,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="19" t="s">
@@ -838,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="19" t="s">
@@ -850,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="19" t="s">
@@ -862,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="19" t="s">
@@ -874,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="21" t="s">
@@ -886,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="21" t="s">
@@ -898,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="21" t="s">
@@ -910,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="21" t="s">
@@ -922,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="21" t="s">
@@ -934,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="21" t="s">
@@ -946,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="19" t="s">
@@ -958,7 +990,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="19" t="s">
@@ -970,7 +1002,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="19" t="s">
@@ -982,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="19" t="s">
@@ -994,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="19" t="s">
@@ -1006,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="19" t="s">
@@ -1018,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="19" t="s">
@@ -1030,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="19" t="s">
@@ -1042,7 +1074,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="19" t="s">
@@ -1054,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="19" t="s">
@@ -1069,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="19" t="s">
@@ -1081,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="19" t="s">
@@ -1093,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="19" t="s">
@@ -1105,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="19" t="s">
@@ -1117,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="19" t="s">
@@ -1129,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="19" t="s">
@@ -1141,7 +1173,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="19" t="s">
@@ -1153,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="19" t="s">
@@ -1165,7 +1197,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="19" t="s">
@@ -1177,7 +1209,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="19" t="s">
@@ -1189,7 +1221,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="19" t="s">
@@ -1201,7 +1233,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="19" t="s">
@@ -1213,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="19" t="s">
@@ -1225,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15" t="s">
@@ -1237,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
@@ -1249,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="15" t="s">
@@ -1261,7 +1293,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="15" t="s">
@@ -1273,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="15" t="s">
@@ -1284,7 +1316,9 @@
       <c r="A51" s="12">
         <v>48</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="15" t="s">
         <v>11</v>
